--- a/data sets/APPLICATION AN INVESTMENT EQUATION.xlsx
+++ b/data sets/APPLICATION AN INVESTMENT EQUATION.xlsx
@@ -359,12 +359,13 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
